--- a/Economato/Ruoli.xlsx
+++ b/Economato/Ruoli.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\Game\CatProject\Economato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C831D3B-EDCA-4DD3-9F64-A7162570C63E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5486B-C6F0-4F32-9192-A29C30C00A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>NOME</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Capo/Grafico/Programmatore</t>
   </si>
   <si>
-    <t>ViceCapo/Grafico/Programmatore/Analista</t>
-  </si>
-  <si>
     <t>Programmatore/Designer/Gestione Dati</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>Fac Totum</t>
+  </si>
+  <si>
+    <t>Grafico/Programmatore</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Casetta</t>
+  </si>
+  <si>
+    <t>Vice Capo/programmatore/analista</t>
+  </si>
+  <si>
+    <t>Programmatore/Gestione Dati</t>
   </si>
 </sst>
 </file>
@@ -185,10 +197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -493,7 +505,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -558,134 +570,146 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
         <v>4</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="5">
-        <v>6</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="5">
-        <v>7</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="5">
-        <v>8</v>
-      </c>
-      <c r="H12" s="5" t="s">
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="5">
-        <v>9</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
